--- a/PUN.xlsx
+++ b/PUN.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/lorenzo_giannuzzo_polito_it/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzo.giannuzzo\Documents\GitHub\BESS-Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_AD4DB114E441178AC67DF4857697D58C683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DDE1FD0-79E7-44A7-8B0B-FF319F529BBC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCE672C-05C2-4EDD-AEDB-DC6B1FBF19D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="1128" windowWidth="21624" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="PUN" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
